--- a/resources/profile.xlsx
+++ b/resources/profile.xlsx
@@ -39,39 +39,12 @@
     <t>Delay After Action(Sec)</t>
   </si>
   <si>
-    <t>/html/body/div[1]/div/md-content/div/section/div[11]/button</t>
-  </si>
-  <si>
     <t>click</t>
   </si>
   <si>
     <t>Profile</t>
   </si>
   <si>
-    <t>//*[@id="address"]</t>
-  </si>
-  <si>
-    <t>//*[@id="city"]</t>
-  </si>
-  <si>
-    <t>//*[@id="county"]</t>
-  </si>
-  <si>
-    <t>//*[@id="state"]</t>
-  </si>
-  <si>
-    <t>//*[@id="zipcode"]</t>
-  </si>
-  <si>
-    <t>//*[@id="phone1"]</t>
-  </si>
-  <si>
-    <t>//*[@id="phone2"]</t>
-  </si>
-  <si>
-    <t>//*[@id="email"]</t>
-  </si>
-  <si>
     <t>Address</t>
   </si>
   <si>
@@ -168,37 +141,64 @@
     <t>a@gmail.com</t>
   </si>
   <si>
-    <t>//*[@id="tab-content-4"]/div/md-content/form/button</t>
-  </si>
-  <si>
-    <t>Password2!</t>
-  </si>
-  <si>
-    <t>//*[@id="tab-content-5"]/div/md-content/form/button</t>
-  </si>
-  <si>
-    <t>//*[@id="tab-content-6"]/div/md-content/button</t>
-  </si>
-  <si>
-    <t>//*[@id="tab-content-6"]/div/md-content/md-list/div[1]/md-list-item[1]/div/div[1]/md-switch/div[1]/div[2]/div</t>
-  </si>
-  <si>
-    <t>//*[@id="tab-content-6"]/div/md-content/md-list/div[1]/md-list-item[2]/div/div[1]/md-switch/div[1]/div[2]/div</t>
-  </si>
-  <si>
-    <t>//*[@id="tab-content-6"]/div/md-content/md-list/div[1]/md-list-item[3]/div/div[1]/md-switch/div[1]/div[2]/div</t>
-  </si>
-  <si>
-    <t>//*[@id="tab-content-6"]/div/md-content/md-list/div[2]/md-list-item[1]/div/div[1]/md-switch/div[1]/div[2]/div</t>
-  </si>
-  <si>
-    <t>//*[@id="tab-content-6"]/div/md-content/md-list/div[2]/md-list-item[2]/div/div[1]/md-switch/div[1]/div[2]/div</t>
-  </si>
-  <si>
-    <t>//*[@id="tab-content-6"]/div/md-content/md-list/div[2]/md-list-item[3]/div/div[1]/md-switch/div[1]/div[2]/div</t>
-  </si>
-  <si>
     <t>/html/body/div[3]/md-dialog/md-dialog-actions/button[2]</t>
+  </si>
+  <si>
+    <t>//button[@ng-click="vm.go('triangular.profile')"]</t>
+  </si>
+  <si>
+    <t>//input[@ng-model="vm.userSetting.address.address"]</t>
+  </si>
+  <si>
+    <t>//input[@ng-model="vm.userSetting.address.city"]</t>
+  </si>
+  <si>
+    <t>//input[@ng-model="vm.userSetting.address.county"]</t>
+  </si>
+  <si>
+    <t>//input[@ng-model="vm.userSetting.address.state"]</t>
+  </si>
+  <si>
+    <t>//input[@ng-model="vm.userSetting.address.zipcode"]</t>
+  </si>
+  <si>
+    <t>//input[@ng-model="vm.userSetting.phone1"]</t>
+  </si>
+  <si>
+    <t>//input[@ng-model="vm.userSetting.phone2"]</t>
+  </si>
+  <si>
+    <t>//input[@ng-model="vm.userSetting.email"]</t>
+  </si>
+  <si>
+    <t>(//button[@class="md-raised md-primary margin-left-0 md-button ng-scope md-cs-content-theme-theme md-ink-ripple"])[1]</t>
+  </si>
+  <si>
+    <t>(//button[@class="md-raised md-primary margin-left-0 md-button ng-scope md-cs-content-theme-theme md-ink-ripple"])[2]</t>
+  </si>
+  <si>
+    <t>(//button[@class="md-raised md-primary margin-left-0 md-button ng-scope md-cs-content-theme-theme md-ink-ripple"])[3]</t>
+  </si>
+  <si>
+    <t>Password0!</t>
+  </si>
+  <si>
+    <t>//md-switch[@aria-label="Toggle Show my location"]</t>
+  </si>
+  <si>
+    <t>//md-switch[@aria-label="Toggle Show my avatar"]</t>
+  </si>
+  <si>
+    <t>//md-switch[@aria-label="Toggle Send me notifications"]</t>
+  </si>
+  <si>
+    <t>//md-switch[@aria-label="Toggle Show my username"]</t>
+  </si>
+  <si>
+    <t>//md-switch[@aria-label="Toggle Make my profile public"]</t>
+  </si>
+  <si>
+    <t>//md-switch[@aria-label="Toggle Allow cloud backups"]</t>
   </si>
 </sst>
 </file>
@@ -559,7 +559,7 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="35.140625" defaultRowHeight="20.25" customHeight="1"/>
@@ -593,13 +593,13 @@
     </row>
     <row r="2" spans="1:7" ht="20.25" customHeight="1">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -613,69 +613,69 @@
     </row>
     <row r="3" spans="1:7" ht="20.25" customHeight="1">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="20.25" customHeight="1">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="20.25" customHeight="1">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="20.25" customHeight="1">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="20.25" customHeight="1">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D7" s="3">
         <v>95901</v>
@@ -683,55 +683,55 @@
     </row>
     <row r="8" spans="1:7" ht="20.25" customHeight="1">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="20.25" customHeight="1">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="20.25" customHeight="1">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" t="s">
         <v>17</v>
       </c>
-      <c r="C10" t="s">
-        <v>26</v>
-      </c>
       <c r="D10" s="4" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="20.25" customHeight="1">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -745,13 +745,13 @@
     </row>
     <row r="12" spans="1:7" ht="20.25" customHeight="1">
       <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" t="s">
         <v>27</v>
       </c>
-      <c r="B12" t="s">
-        <v>36</v>
-      </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -765,55 +765,55 @@
     </row>
     <row r="13" spans="1:7" ht="20.25" customHeight="1">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D13" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="20.25" customHeight="1">
       <c r="A14" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D14" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="20.25" customHeight="1">
       <c r="A15" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D15" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="20.25" customHeight="1">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B16" t="s">
         <v>52</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -827,10 +827,10 @@
     </row>
     <row r="17" spans="1:7" ht="20.25" customHeight="1">
       <c r="B17" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -844,13 +844,13 @@
     </row>
     <row r="18" spans="1:7" ht="20.25" customHeight="1">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -864,13 +864,13 @@
     </row>
     <row r="19" spans="1:7" ht="20.25" customHeight="1">
       <c r="A19" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B19" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -884,13 +884,13 @@
     </row>
     <row r="20" spans="1:7" ht="20.25" customHeight="1">
       <c r="A20" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B20" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -904,13 +904,13 @@
     </row>
     <row r="21" spans="1:7" ht="20.25" customHeight="1">
       <c r="A21" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B21" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -924,13 +924,13 @@
     </row>
     <row r="22" spans="1:7" ht="20.25" customHeight="1">
       <c r="A22" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -944,13 +944,13 @@
     </row>
     <row r="23" spans="1:7" ht="20.25" customHeight="1">
       <c r="A23" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B23" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -964,13 +964,13 @@
     </row>
     <row r="24" spans="1:7" ht="20.25" customHeight="1">
       <c r="A24" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B24" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -984,13 +984,13 @@
     </row>
     <row r="25" spans="1:7" ht="20.25" customHeight="1">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B25" t="s">
         <v>53</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E25">
         <v>1</v>

--- a/resources/profile.xlsx
+++ b/resources/profile.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="64">
   <si>
     <t>Name</t>
   </si>
@@ -199,6 +199,15 @@
   </si>
   <si>
     <t>//md-switch[@aria-label="Toggle Allow cloud backups"]</t>
+  </si>
+  <si>
+    <t>Updating</t>
+  </si>
+  <si>
+    <t>//md-toast/div/span</t>
+  </si>
+  <si>
+    <t>visible</t>
   </si>
 </sst>
 </file>
@@ -556,10 +565,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="A28" sqref="A28:C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="35.140625" defaultRowHeight="20.25" customHeight="1"/>
@@ -744,45 +753,42 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="20.25" customHeight="1">
-      <c r="A12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
+      <c r="A12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="20.25" customHeight="1">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" t="s">
-        <v>54</v>
+        <v>7</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="20.25" customHeight="1">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C14" t="s">
         <v>17</v>
@@ -793,10 +799,10 @@
     </row>
     <row r="15" spans="1:7" ht="20.25" customHeight="1">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C15" t="s">
         <v>17</v>
@@ -807,67 +813,52 @@
     </row>
     <row r="16" spans="1:7" ht="20.25" customHeight="1">
       <c r="A16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="20.25" customHeight="1">
+      <c r="A17" t="s">
         <v>19</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" t="s">
         <v>52</v>
       </c>
-      <c r="C16" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="20.25" customHeight="1">
-      <c r="B17" t="s">
+      <c r="C17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="20.25" customHeight="1">
+      <c r="A18" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="20.25" customHeight="1">
+      <c r="B19" t="s">
         <v>41</v>
-      </c>
-      <c r="C17" t="s">
-        <v>7</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="20.25" customHeight="1">
-      <c r="A18" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="20.25" customHeight="1">
-      <c r="A19" t="s">
-        <v>29</v>
-      </c>
-      <c r="B19" t="s">
-        <v>55</v>
       </c>
       <c r="C19" t="s">
         <v>7</v>
@@ -884,10 +875,10 @@
     </row>
     <row r="20" spans="1:7" ht="20.25" customHeight="1">
       <c r="A20" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B20" t="s">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="C20" t="s">
         <v>7</v>
@@ -904,10 +895,10 @@
     </row>
     <row r="21" spans="1:7" ht="20.25" customHeight="1">
       <c r="A21" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B21" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C21" t="s">
         <v>7</v>
@@ -924,10 +915,10 @@
     </row>
     <row r="22" spans="1:7" ht="20.25" customHeight="1">
       <c r="A22" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B22" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C22" t="s">
         <v>7</v>
@@ -944,10 +935,10 @@
     </row>
     <row r="23" spans="1:7" ht="20.25" customHeight="1">
       <c r="A23" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B23" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C23" t="s">
         <v>7</v>
@@ -964,10 +955,10 @@
     </row>
     <row r="24" spans="1:7" ht="20.25" customHeight="1">
       <c r="A24" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B24" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C24" t="s">
         <v>7</v>
@@ -984,22 +975,73 @@
     </row>
     <row r="25" spans="1:7" ht="20.25" customHeight="1">
       <c r="A25" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="20.25" customHeight="1">
+      <c r="A26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" t="s">
+        <v>60</v>
+      </c>
+      <c r="C26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="20.25" customHeight="1">
+      <c r="A27" t="s">
         <v>19</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B27" t="s">
         <v>53</v>
       </c>
-      <c r="C25" t="s">
-        <v>7</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>1</v>
+      <c r="C27" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="20.25" customHeight="1">
+      <c r="A28" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/resources/profile.xlsx
+++ b/resources/profile.xlsx
@@ -568,7 +568,7 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:C28"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="35.140625" defaultRowHeight="20.25" customHeight="1"/>
@@ -850,27 +850,27 @@
         <v>61</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="20.25" customHeight="1">
+      <c r="B19" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="20.25" customHeight="1">
-      <c r="B19" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19" t="s">
-        <v>7</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="20.25" customHeight="1">

--- a/resources/profile.xlsx
+++ b/resources/profile.xlsx
@@ -568,7 +568,7 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="35.140625" defaultRowHeight="20.25" customHeight="1"/>

--- a/resources/profile.xlsx
+++ b/resources/profile.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="30" windowWidth="28695" windowHeight="13290"/>
+    <workbookView xWindow="120" yWindow="30" windowWidth="28695" windowHeight="13290" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="profile" sheetId="1" r:id="rId1"/>
+    <sheet name="password" sheetId="2" r:id="rId2"/>
+    <sheet name="notification" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="65">
   <si>
     <t>Name</t>
   </si>
@@ -208,6 +208,9 @@
   </si>
   <si>
     <t>visible</t>
+  </si>
+  <si>
+    <t>password</t>
   </si>
 </sst>
 </file>
@@ -260,7 +263,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -270,6 +273,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -565,10 +571,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="35.140625" defaultRowHeight="20.25" customHeight="1"/>
@@ -763,287 +769,6 @@
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="20.25" customHeight="1">
-      <c r="A13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="20.25" customHeight="1">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="20.25" customHeight="1">
-      <c r="A15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="20.25" customHeight="1">
-      <c r="A16" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="20.25" customHeight="1">
-      <c r="A17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" t="s">
-        <v>52</v>
-      </c>
-      <c r="C17" t="s">
-        <v>7</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="20.25" customHeight="1">
-      <c r="A18" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="20.25" customHeight="1">
-      <c r="B19" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="20.25" customHeight="1">
-      <c r="A20" t="s">
-        <v>26</v>
-      </c>
-      <c r="B20" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" t="s">
-        <v>7</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="20.25" customHeight="1">
-      <c r="A21" t="s">
-        <v>29</v>
-      </c>
-      <c r="B21" t="s">
-        <v>55</v>
-      </c>
-      <c r="C21" t="s">
-        <v>7</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="20.25" customHeight="1">
-      <c r="A22" t="s">
-        <v>30</v>
-      </c>
-      <c r="B22" t="s">
-        <v>56</v>
-      </c>
-      <c r="C22" t="s">
-        <v>7</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="20.25" customHeight="1">
-      <c r="A23" t="s">
-        <v>31</v>
-      </c>
-      <c r="B23" t="s">
-        <v>57</v>
-      </c>
-      <c r="C23" t="s">
-        <v>7</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="20.25" customHeight="1">
-      <c r="A24" t="s">
-        <v>32</v>
-      </c>
-      <c r="B24" t="s">
-        <v>58</v>
-      </c>
-      <c r="C24" t="s">
-        <v>7</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="20.25" customHeight="1">
-      <c r="A25" t="s">
-        <v>33</v>
-      </c>
-      <c r="B25" t="s">
-        <v>59</v>
-      </c>
-      <c r="C25" t="s">
-        <v>7</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="20.25" customHeight="1">
-      <c r="A26" t="s">
-        <v>34</v>
-      </c>
-      <c r="B26" t="s">
-        <v>60</v>
-      </c>
-      <c r="C26" t="s">
-        <v>7</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="20.25" customHeight="1">
-      <c r="A27" t="s">
-        <v>19</v>
-      </c>
-      <c r="B27" t="s">
-        <v>53</v>
-      </c>
-      <c r="C27" t="s">
-        <v>7</v>
-      </c>
-      <c r="E27">
-        <v>1</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="20.25" customHeight="1">
-      <c r="A28" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D10" r:id="rId1"/>
@@ -1055,24 +780,418 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="27" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="16384" width="27" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2"/>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3"/>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4"/>
+      <c r="F4"/>
+      <c r="G4"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="G5"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6"/>
+      <c r="F6"/>
+      <c r="G6"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7"/>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="45">
+      <c r="A8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8"/>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9"/>
+      <c r="B9" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9"/>
+      <c r="E9"/>
+      <c r="F9"/>
+      <c r="G9"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:7" ht="60">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="45">
+      <c r="A11" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/resources/profile.xlsx
+++ b/resources/profile.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="64">
   <si>
     <t>Name</t>
   </si>
@@ -208,9 +208,6 @@
   </si>
   <si>
     <t>visible</t>
-  </si>
-  <si>
-    <t>password</t>
   </si>
 </sst>
 </file>
@@ -867,7 +864,7 @@
         <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="E4"/>
       <c r="F4"/>

--- a/resources/profile.xlsx
+++ b/resources/profile.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="30" windowWidth="28695" windowHeight="13290" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="30" windowWidth="28695" windowHeight="13290" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="profile" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="65">
   <si>
     <t>Name</t>
   </si>
@@ -208,6 +208,9 @@
   </si>
   <si>
     <t>visible</t>
+  </si>
+  <si>
+    <t>password</t>
   </si>
 </sst>
 </file>
@@ -571,13 +574,14 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="35.140625" defaultRowHeight="20.25" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
     <col min="2" max="2" width="59.7109375" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.25" customHeight="1">
@@ -620,7 +624,7 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="20.25" customHeight="1">
@@ -779,13 +783,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="16384" width="27" style="5"/>
+    <col min="1" max="1" width="27" style="5"/>
+    <col min="2" max="2" width="65.5703125" style="5" customWidth="1"/>
+    <col min="3" max="16384" width="27" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -829,7 +835,7 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -864,7 +870,7 @@
         <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="E4"/>
       <c r="F4"/>
@@ -968,8 +974,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1014,7 +1020,7 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:7">

--- a/resources/profile.xlsx
+++ b/resources/profile.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="69">
   <si>
     <t>Name</t>
   </si>
@@ -211,6 +211,18 @@
   </si>
   <si>
     <t>password</t>
+  </si>
+  <si>
+    <t>Error</t>
+  </si>
+  <si>
+    <t>Fail to add patient profile information</t>
+  </si>
+  <si>
+    <t>Fail to change user password</t>
+  </si>
+  <si>
+    <t>Fail to update profile notification</t>
   </si>
 </sst>
 </file>
@@ -571,20 +583,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3:J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="35.140625" defaultRowHeight="20.25" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
     <col min="2" max="2" width="59.7109375" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" customWidth="1"/>
+    <col min="5" max="6" width="13.5703125" customWidth="1"/>
+    <col min="7" max="7" width="13" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" customWidth="1"/>
+    <col min="9" max="9" width="7.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="20.25" customHeight="1">
+    <row r="1" spans="1:10" ht="20.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -606,8 +621,11 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="20.25" customHeight="1">
+      <c r="J1" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="20.25" customHeight="1">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -626,8 +644,11 @@
       <c r="G2">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="20.25" customHeight="1">
+      <c r="J2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="20.25" customHeight="1">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -640,8 +661,11 @@
       <c r="D3" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="20.25" customHeight="1">
+      <c r="J3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="20.25" customHeight="1">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -654,8 +678,11 @@
       <c r="D4" s="3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="20.25" customHeight="1">
+      <c r="J4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="20.25" customHeight="1">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -668,8 +695,11 @@
       <c r="D5" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="20.25" customHeight="1">
+      <c r="J5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="20.25" customHeight="1">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -682,8 +712,11 @@
       <c r="D6" s="3" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="20.25" customHeight="1">
+      <c r="J6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="20.25" customHeight="1">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -696,8 +729,11 @@
       <c r="D7" s="3">
         <v>95901</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="20.25" customHeight="1">
+      <c r="J7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="20.25" customHeight="1">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -710,8 +746,11 @@
       <c r="D8" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" ht="20.25" customHeight="1">
+      <c r="J8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="20.25" customHeight="1">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -724,8 +763,11 @@
       <c r="D9" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" ht="20.25" customHeight="1">
+      <c r="J9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="20.25" customHeight="1">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -738,8 +780,11 @@
       <c r="D10" s="4" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" ht="20.25" customHeight="1">
+      <c r="J10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="20.25" customHeight="1">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -758,8 +803,11 @@
       <c r="G11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" ht="20.25" customHeight="1">
+      <c r="J11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="20.25" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>61</v>
       </c>
@@ -768,6 +816,9 @@
       </c>
       <c r="C12" s="1" t="s">
         <v>63</v>
+      </c>
+      <c r="J12" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -781,20 +832,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="27" style="5"/>
     <col min="2" max="2" width="65.5703125" style="5" customWidth="1"/>
-    <col min="3" max="16384" width="27" style="5"/>
+    <col min="3" max="6" width="27" style="5"/>
+    <col min="7" max="7" width="12.140625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="6.42578125" style="5" customWidth="1"/>
+    <col min="9" max="9" width="4.85546875" style="5" customWidth="1"/>
+    <col min="10" max="16384" width="27" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10" ht="30">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -816,8 +871,11 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="J1" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -837,8 +895,11 @@
       <c r="G2">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="J2" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -858,8 +919,11 @@
       <c r="G3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="J3" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -875,8 +939,11 @@
       <c r="E4"/>
       <c r="F4"/>
       <c r="G4"/>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="J4" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -892,8 +959,11 @@
       <c r="E5"/>
       <c r="F5"/>
       <c r="G5"/>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="J5" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -909,8 +979,11 @@
       <c r="E6"/>
       <c r="F6"/>
       <c r="G6"/>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="J6" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -930,8 +1003,11 @@
       <c r="G7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="45">
+      <c r="J7" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
         <v>61</v>
       </c>
@@ -951,8 +1027,11 @@
       <c r="G8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="J8" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9"/>
       <c r="B9" s="1" t="s">
         <v>62</v>
@@ -972,15 +1051,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="J3" sqref="J3:J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="56.5703125" customWidth="1"/>
+    <col min="10" max="10" width="33.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="60">
+    <row r="1" spans="1:10" ht="60">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1003,7 +1086,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1022,8 +1105,11 @@
       <c r="G2">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="J2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -1042,8 +1128,11 @@
       <c r="G3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="J3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -1062,8 +1151,11 @@
       <c r="G4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="J4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
         <v>30</v>
       </c>
@@ -1082,8 +1174,11 @@
       <c r="G5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="J5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -1102,8 +1197,11 @@
       <c r="G6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="J6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
         <v>32</v>
       </c>
@@ -1122,8 +1220,11 @@
       <c r="G7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="J7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
         <v>33</v>
       </c>
@@ -1142,8 +1243,11 @@
       <c r="G8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="J8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
         <v>34</v>
       </c>
@@ -1162,8 +1266,11 @@
       <c r="G9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="J9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -1182,8 +1289,11 @@
       <c r="G10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" ht="45">
+      <c r="J10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="45">
       <c r="A11" s="1" t="s">
         <v>61</v>
       </c>
@@ -1192,6 +1302,9 @@
       </c>
       <c r="C11" s="1" t="s">
         <v>63</v>
+      </c>
+      <c r="J11" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/resources/profile.xlsx
+++ b/resources/profile.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="30" windowWidth="28695" windowHeight="13290" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="30" windowWidth="28695" windowHeight="13290" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="profile" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="69">
   <si>
     <t>Name</t>
   </si>
@@ -141,12 +141,6 @@
     <t>a@gmail.com</t>
   </si>
   <si>
-    <t>/html/body/div[3]/md-dialog/md-dialog-actions/button[2]</t>
-  </si>
-  <si>
-    <t>//button[@ng-click="vm.go('triangular.profile')"]</t>
-  </si>
-  <si>
     <t>//input[@ng-model="vm.userSetting.address.address"]</t>
   </si>
   <si>
@@ -174,9 +168,6 @@
     <t>(//button[@class="md-raised md-primary margin-left-0 md-button ng-scope md-cs-content-theme-theme md-ink-ripple"])[1]</t>
   </si>
   <si>
-    <t>(//button[@class="md-raised md-primary margin-left-0 md-button ng-scope md-cs-content-theme-theme md-ink-ripple"])[2]</t>
-  </si>
-  <si>
     <t>(//button[@class="md-raised md-primary margin-left-0 md-button ng-scope md-cs-content-theme-theme md-ink-ripple"])[3]</t>
   </si>
   <si>
@@ -210,9 +201,6 @@
     <t>visible</t>
   </si>
   <si>
-    <t>password</t>
-  </si>
-  <si>
     <t>Error</t>
   </si>
   <si>
@@ -223,6 +211,18 @@
   </si>
   <si>
     <t>Fail to update profile notification</t>
+  </si>
+  <si>
+    <t>//button[@ng-click="$mdOpenMenu($event)"]</t>
+  </si>
+  <si>
+    <t>//button[@ng-click="vm.openProfileEdit()"]</t>
+  </si>
+  <si>
+    <t>//button[@aria-label="Update Password"]</t>
+  </si>
+  <si>
+    <t>//button[@aria-label="Confirm!"]</t>
   </si>
 </sst>
 </file>
@@ -583,10 +583,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3:J12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="35.140625" defaultRowHeight="20.25" customHeight="1"/>
@@ -622,7 +622,7 @@
         <v>6</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="20.25" customHeight="1">
@@ -630,7 +630,7 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
@@ -645,117 +645,117 @@
         <v>5</v>
       </c>
       <c r="J2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="20.25" customHeight="1">
+      <c r="B3" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>43</v>
-      </c>
       <c r="C3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="J3" t="s">
-        <v>66</v>
+        <v>7</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="20.25" customHeight="1">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C4" t="s">
         <v>17</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="20.25" customHeight="1">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C5" t="s">
         <v>17</v>
       </c>
-      <c r="D5" t="s">
-        <v>37</v>
+      <c r="D5" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="J5" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="20.25" customHeight="1">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C6" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>38</v>
+      <c r="D6" t="s">
+        <v>37</v>
       </c>
       <c r="J6" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="20.25" customHeight="1">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C7" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="3">
-        <v>95901</v>
+      <c r="D7" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="J7" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="20.25" customHeight="1">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C8" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>39</v>
+      <c r="D8" s="3">
+        <v>95901</v>
       </c>
       <c r="J8" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="20.25" customHeight="1">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C9" t="s">
         <v>17</v>
@@ -764,66 +764,83 @@
         <v>39</v>
       </c>
       <c r="J9" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="20.25" customHeight="1">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>40</v>
+      <c r="D10" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="J10" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="20.25" customHeight="1">
       <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="20.25" customHeight="1">
+      <c r="A12" t="s">
         <v>19</v>
       </c>
-      <c r="B11" t="s">
-        <v>51</v>
-      </c>
-      <c r="C11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="J11" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A12" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="J12" t="s">
         <v>62</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="J12" t="s">
-        <v>66</v>
+    </row>
+    <row r="13" spans="1:10" ht="20.25" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J13" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D10" r:id="rId1"/>
+    <hyperlink ref="D11" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -832,10 +849,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27" defaultRowHeight="15"/>
@@ -872,20 +889,19 @@
         <v>6</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" customFormat="1" ht="20.25" customHeight="1">
       <c r="A2" t="s">
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="D2"/>
       <c r="E2">
         <v>1</v>
       </c>
@@ -893,23 +909,19 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" t="s">
-        <v>18</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="J2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" customFormat="1" ht="20.25" customHeight="1">
       <c r="B3" t="s">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="D3"/>
       <c r="E3">
         <v>1</v>
       </c>
@@ -917,102 +929,99 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>67</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E4"/>
-      <c r="F4"/>
-      <c r="G4"/>
+        <v>7</v>
+      </c>
+      <c r="D4"/>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
       <c r="J4" s="5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
         <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E5"/>
       <c r="F5"/>
       <c r="G5"/>
       <c r="J5" s="5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
         <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E6"/>
       <c r="F6"/>
       <c r="G6"/>
       <c r="J6" s="5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7"/>
+      <c r="F7"/>
+      <c r="G7"/>
+      <c r="J7" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
         <v>19</v>
       </c>
-      <c r="B7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7"/>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="J7" s="5" t="s">
+      <c r="B8" t="s">
         <v>67</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="C8" t="s">
         <v>7</v>
@@ -1028,37 +1037,63 @@
         <v>1</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9"/>
+      <c r="A9" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="B9" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C9" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9"/>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="J9" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="D9"/>
-      <c r="E9"/>
-      <c r="F9"/>
-      <c r="G9"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10"/>
+      <c r="B10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3:J11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="35.85546875" customWidth="1"/>
     <col min="2" max="2" width="56.5703125" customWidth="1"/>
     <col min="10" max="10" width="33.5703125" customWidth="1"/>
   </cols>
@@ -1086,12 +1121,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" ht="20.25" customHeight="1">
       <c r="A2" t="s">
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
@@ -1103,18 +1138,15 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" t="s">
-        <v>26</v>
-      </c>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="20.25" customHeight="1">
       <c r="B3" t="s">
-        <v>28</v>
+        <v>66</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
@@ -1126,18 +1158,15 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="J3" t="s">
-        <v>68</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
@@ -1152,15 +1181,15 @@
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
@@ -1175,15 +1204,15 @@
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
@@ -1198,15 +1227,15 @@
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C7" t="s">
         <v>7</v>
@@ -1221,15 +1250,15 @@
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C8" t="s">
         <v>7</v>
@@ -1244,15 +1273,15 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C9" t="s">
         <v>7</v>
@@ -1267,44 +1296,67 @@
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="J10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
         <v>19</v>
       </c>
-      <c r="B10" t="s">
-        <v>53</v>
-      </c>
-      <c r="C10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="J10" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="45">
-      <c r="A11" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>63</v>
+      <c r="B11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>68</v>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J12" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/resources/profile.xlsx
+++ b/resources/profile.xlsx
@@ -99,9 +99,6 @@
     <t>Notification</t>
   </si>
   <si>
-    <t>/html/body/div/div/md-content/div[2]/div/md-tabs/md-tabs-wrapper/md-tabs-canvas/md-pagination-wrapper/md-tab-item[2]</t>
-  </si>
-  <si>
     <t>/html/body/div/div/md-content/div[2]/div/md-tabs/md-tabs-wrapper/md-tabs-canvas/md-pagination-wrapper/md-tab-item[3]</t>
   </si>
   <si>
@@ -223,6 +220,9 @@
   </si>
   <si>
     <t>//button[@aria-label="Confirm!"]</t>
+  </si>
+  <si>
+    <t>//button[@aria-label="Password"]</t>
   </si>
 </sst>
 </file>
@@ -622,7 +622,7 @@
         <v>6</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="20.25" customHeight="1">
@@ -630,7 +630,7 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
@@ -645,12 +645,12 @@
         <v>5</v>
       </c>
       <c r="J2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="20.25" customHeight="1">
       <c r="B3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
@@ -670,16 +670,16 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
         <v>17</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="20.25" customHeight="1">
@@ -687,16 +687,16 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C5" t="s">
         <v>17</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="20.25" customHeight="1">
@@ -704,16 +704,16 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C6" t="s">
         <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="20.25" customHeight="1">
@@ -721,16 +721,16 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C7" t="s">
         <v>17</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="20.25" customHeight="1">
@@ -738,7 +738,7 @@
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C8" t="s">
         <v>17</v>
@@ -747,7 +747,7 @@
         <v>95901</v>
       </c>
       <c r="J8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="20.25" customHeight="1">
@@ -755,16 +755,16 @@
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C9" t="s">
         <v>17</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="20.25" customHeight="1">
@@ -772,16 +772,16 @@
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="20.25" customHeight="1">
@@ -789,16 +789,16 @@
         <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C11" t="s">
         <v>17</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="20.25" customHeight="1">
@@ -806,7 +806,7 @@
         <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C12" t="s">
         <v>7</v>
@@ -821,21 +821,21 @@
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="20.25" customHeight="1">
       <c r="A13" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="J13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -852,7 +852,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27" defaultRowHeight="15"/>
@@ -889,7 +889,7 @@
         <v>6</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:10" customFormat="1" ht="20.25" customHeight="1">
@@ -897,7 +897,7 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
@@ -912,12 +912,12 @@
         <v>5</v>
       </c>
       <c r="J2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:10" customFormat="1" ht="20.25" customHeight="1">
       <c r="B3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
@@ -937,7 +937,7 @@
         <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
@@ -953,7 +953,7 @@
         <v>1</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -967,13 +967,13 @@
         <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E5"/>
       <c r="F5"/>
       <c r="G5"/>
       <c r="J5" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -987,13 +987,13 @@
         <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E6"/>
       <c r="F6"/>
       <c r="G6"/>
       <c r="J6" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1007,13 +1007,13 @@
         <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E7"/>
       <c r="F7"/>
       <c r="G7"/>
       <c r="J7" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1021,7 +1021,7 @@
         <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C8" t="s">
         <v>7</v>
@@ -1037,15 +1037,15 @@
         <v>1</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C9" t="s">
         <v>7</v>
@@ -1061,16 +1061,16 @@
         <v>1</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10"/>
       <c r="B10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="D10"/>
       <c r="E10"/>
@@ -1126,7 +1126,7 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
@@ -1141,12 +1141,12 @@
         <v>5</v>
       </c>
       <c r="J2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="20.25" customHeight="1">
       <c r="B3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
@@ -1166,7 +1166,7 @@
         <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
@@ -1181,15 +1181,15 @@
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
@@ -1204,15 +1204,15 @@
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
@@ -1227,15 +1227,15 @@
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C7" t="s">
         <v>7</v>
@@ -1250,15 +1250,15 @@
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C8" t="s">
         <v>7</v>
@@ -1273,15 +1273,15 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C9" t="s">
         <v>7</v>
@@ -1296,15 +1296,15 @@
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C10" t="s">
         <v>7</v>
@@ -1319,7 +1319,7 @@
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1327,7 +1327,7 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C11" t="s">
         <v>7</v>
@@ -1342,21 +1342,21 @@
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="J12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/resources/profile.xlsx
+++ b/resources/profile.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="71">
   <si>
     <t>Name</t>
   </si>
@@ -223,6 +223,12 @@
   </si>
   <si>
     <t>//button[@aria-label="Password"]</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>//button[@aria-owns="menu_container_2"]</t>
   </si>
 </sst>
 </file>
@@ -586,7 +592,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD3"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="35.140625" defaultRowHeight="20.25" customHeight="1"/>
@@ -849,10 +855,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27" defaultRowHeight="15"/>
@@ -897,7 +903,7 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
@@ -912,7 +918,7 @@
         <v>5</v>
       </c>
       <c r="J2" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:10" customFormat="1" ht="20.25" customHeight="1">
@@ -1034,7 +1040,7 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J8" s="5" t="s">
         <v>62</v>
@@ -1063,19 +1069,6 @@
       <c r="J9" s="5" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10"/>
-      <c r="B10" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D10"/>
-      <c r="E10"/>
-      <c r="F10"/>
-      <c r="G10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/resources/profile.xlsx
+++ b/resources/profile.xlsx
@@ -228,7 +228,7 @@
     <t>test</t>
   </si>
   <si>
-    <t>//button[@aria-owns="menu_container_2"]</t>
+    <t>//button[@aria-owns="menu_container_2" and @ng-click="$mdOpenMenu($event)"]</t>
   </si>
 </sst>
 </file>
@@ -858,13 +858,13 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="27" style="5"/>
-    <col min="2" max="2" width="65.5703125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="79.140625" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="6" width="27" style="5"/>
     <col min="7" max="7" width="12.140625" style="5" customWidth="1"/>
     <col min="8" max="8" width="6.42578125" style="5" customWidth="1"/>
@@ -912,10 +912,10 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J2" t="s">
         <v>69</v>

--- a/resources/profile.xlsx
+++ b/resources/profile.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="71">
   <si>
     <t>Name</t>
   </si>
@@ -225,10 +225,10 @@
     <t>//button[@aria-label="Password"]</t>
   </si>
   <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>//button[@aria-owns="menu_container_2" and @ng-click="$mdOpenMenu($event)"]</t>
+    <t>//button[@ng-click="$mdOpenMenu($event)" and @aria-label="Open user menu"]</t>
+  </si>
+  <si>
+    <t>unable to open profile</t>
   </si>
 </sst>
 </file>
@@ -858,7 +858,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27" defaultRowHeight="15"/>
@@ -898,27 +898,26 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:10" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="2" spans="1:10">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>3</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1</v>
+      </c>
+      <c r="J2" s="5" t="s">
         <v>70</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>3</v>
-      </c>
-      <c r="G2">
-        <v>3</v>
-      </c>
-      <c r="J2" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:10" customFormat="1" ht="20.25" customHeight="1">
@@ -976,8 +975,12 @@
         <v>50</v>
       </c>
       <c r="E5"/>
-      <c r="F5"/>
-      <c r="G5"/>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
       <c r="J5" s="5" t="s">
         <v>62</v>
       </c>
@@ -996,8 +999,12 @@
         <v>50</v>
       </c>
       <c r="E6"/>
-      <c r="F6"/>
-      <c r="G6"/>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
       <c r="J6" s="5" t="s">
         <v>62</v>
       </c>
@@ -1016,8 +1023,12 @@
         <v>50</v>
       </c>
       <c r="E7"/>
-      <c r="F7"/>
-      <c r="G7"/>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
       <c r="J7" s="5" t="s">
         <v>62</v>
       </c>

--- a/resources/profile.xlsx
+++ b/resources/profile.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="72">
   <si>
     <t>Name</t>
   </si>
@@ -229,6 +229,9 @@
   </si>
   <si>
     <t>unable to open profile</t>
+  </si>
+  <si>
+    <t>(//md-menu-item)[5]</t>
   </si>
 </sst>
 </file>
@@ -858,7 +861,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27" defaultRowHeight="15"/>
@@ -922,7 +925,7 @@
     </row>
     <row r="3" spans="1:10" customFormat="1" ht="20.25" customHeight="1">
       <c r="B3" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>

--- a/resources/profile.xlsx
+++ b/resources/profile.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="71">
   <si>
     <t>Name</t>
   </si>
@@ -229,9 +229,6 @@
   </si>
   <si>
     <t>unable to open profile</t>
-  </si>
-  <si>
-    <t>(//md-menu-item)[5]</t>
   </si>
 </sst>
 </file>
@@ -861,7 +858,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27" defaultRowHeight="15"/>
@@ -925,7 +922,7 @@
     </row>
     <row r="3" spans="1:10" customFormat="1" ht="20.25" customHeight="1">
       <c r="B3" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
